--- a/AAII_Financials/Quarterly/CLEV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLEV_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>CLEV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,82 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43131</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43039</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42947</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42855</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42766</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42674</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,8 +786,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -814,23 +821,26 @@
       <c r="L9" s="3">
         <v>0</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
       <c r="O9" s="3">
         <v>0</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -861,23 +871,26 @@
       <c r="L10" s="3">
         <v>0</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
       <c r="O10" s="3">
         <v>0</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,8 +1125,9 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1146,8 +1173,11 @@
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1193,8 +1223,11 @@
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1259,8 +1293,11 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1306,8 +1343,11 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,8 +1393,11 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1400,8 +1443,11 @@
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,8 +1543,11 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1541,8 +1593,11 @@
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1588,8 +1643,11 @@
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1823,8 +1893,11 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1870,8 +1943,11 @@
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,8 +1993,11 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1964,60 +2043,66 @@
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43131</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43039</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42947</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42855</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42766</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42674</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,8 +2140,9 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2101,8 +2188,11 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2238,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2159,8 +2252,8 @@
       <c r="E43" s="3">
         <v>0</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
+      <c r="F43" s="3">
+        <v>0</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
@@ -2171,8 +2264,8 @@
       <c r="I43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2338,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2259,14 +2358,14 @@
       <c r="G45" s="3">
         <v>0</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2289,8 +2388,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2336,8 +2438,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,8 +2488,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2430,8 +2538,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,8 +2788,11 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2712,8 +2838,11 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +2880,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2797,8 +2928,11 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,8 +2978,11 @@
       <c r="Q58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2856,7 +2993,7 @@
         <v>300</v>
       </c>
       <c r="F59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G59" s="3">
         <v>200</v>
@@ -2891,13 +3028,16 @@
       <c r="Q59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E60" s="3">
         <v>300</v>
@@ -2938,8 +3078,11 @@
       <c r="Q60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3128,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,13 +3328,16 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E66" s="3">
         <v>300</v>
@@ -3220,8 +3378,11 @@
       <c r="Q66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,8 +3598,11 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3439,7 +3613,7 @@
         <v>-800</v>
       </c>
       <c r="F72" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="G72" s="3">
         <v>-700</v>
@@ -3472,10 +3646,13 @@
         <v>-700</v>
       </c>
       <c r="Q72" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R72" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,8 +3798,11 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3657,13 +3843,16 @@
         <v>-300</v>
       </c>
       <c r="P76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="Q76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,60 +3898,66 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43131</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43039</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42947</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42855</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42766</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42674</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3808,8 +4003,11 @@
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4323,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4136,11 +4353,11 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
@@ -4156,8 +4373,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4543,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4363,8 +4593,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +4813,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4597,11 +4843,11 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -4617,8 +4863,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,8 +4913,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4709,6 +4961,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLEV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLEV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>CLEV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,85 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E7" s="2">
         <v>43861</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43769</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43677</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43585</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43496</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43404</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43312</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43220</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43131</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43039</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42947</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42855</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42766</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42674</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -789,8 +792,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -824,23 +830,26 @@
       <c r="M9" s="3">
         <v>0</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
       <c r="P9" s="3">
         <v>0</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -874,23 +883,26 @@
       <c r="M10" s="3">
         <v>0</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
       <c r="P10" s="3">
         <v>0</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,8 +1151,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1176,8 +1202,11 @@
       <c r="R17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1226,8 +1255,11 @@
       <c r="R18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1296,8 +1329,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1346,8 +1382,11 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,8 +1435,11 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1446,8 +1488,11 @@
       <c r="R23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,8 +1594,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1596,8 +1647,11 @@
       <c r="R26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1646,8 +1700,11 @@
       <c r="R27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1896,8 +1965,11 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1946,8 +2018,11 @@
       <c r="R33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,8 +2071,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2046,63 +2124,69 @@
       <c r="R35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E38" s="2">
         <v>43861</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43769</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43677</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43585</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43496</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43404</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43312</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43220</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43131</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43039</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42947</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42855</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42766</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42674</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,8 +2226,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2191,8 +2277,11 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2255,8 +2347,8 @@
       <c r="F43" s="3">
         <v>0</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
+      <c r="G43" s="3">
+        <v>0</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
@@ -2267,8 +2359,8 @@
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2291,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2361,14 +2459,14 @@
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2391,8 +2489,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2441,8 +2542,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2541,8 +2648,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2741,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,8 +2913,11 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2841,8 +2966,11 @@
       <c r="R54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2931,8 +3061,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2981,8 +3114,11 @@
       <c r="R58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2996,7 +3132,7 @@
         <v>300</v>
       </c>
       <c r="G59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H59" s="3">
         <v>200</v>
@@ -3031,8 +3167,11 @@
       <c r="R59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3040,7 +3179,7 @@
         <v>400</v>
       </c>
       <c r="E60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F60" s="3">
         <v>300</v>
@@ -3081,8 +3220,11 @@
       <c r="R60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3181,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,8 +3485,11 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3340,7 +3497,7 @@
         <v>400</v>
       </c>
       <c r="E66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F66" s="3">
         <v>300</v>
@@ -3381,8 +3538,11 @@
       <c r="R66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,8 +3771,11 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3616,7 +3789,7 @@
         <v>-800</v>
       </c>
       <c r="G72" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="H72" s="3">
         <v>-700</v>
@@ -3649,10 +3822,13 @@
         <v>-700</v>
       </c>
       <c r="R72" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S72" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,8 +3983,11 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3846,13 +4031,16 @@
         <v>-300</v>
       </c>
       <c r="Q76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="R76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,63 +4089,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E80" s="2">
         <v>43861</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43769</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43677</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43585</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43496</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43404</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43312</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43220</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43131</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43039</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42947</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42855</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42766</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42674</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4006,8 +4200,11 @@
       <c r="R81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4076,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4356,11 +4572,11 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
@@ -4376,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4446,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4596,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4846,11 +5091,11 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -4866,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4964,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLEV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLEV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>CLEV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43951</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43312</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43220</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43131</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43039</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42947</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42855</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42766</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42674</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -833,23 +840,26 @@
       <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
       <c r="Q9" s="3">
         <v>0</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -886,23 +896,26 @@
       <c r="N10" s="3">
         <v>0</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
       <c r="Q10" s="3">
         <v>0</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1178,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1205,8 +1232,11 @@
       <c r="S17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1258,8 +1288,11 @@
       <c r="S18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1385,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,8 +1478,11 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1491,8 +1534,11 @@
       <c r="S23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1646,11 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1650,8 +1702,11 @@
       <c r="S26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1703,8 +1758,11 @@
       <c r="S27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,8 +2038,11 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2021,8 +2094,11 @@
       <c r="S33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2150,11 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2127,66 +2206,72 @@
       <c r="S35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43951</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43312</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43220</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43131</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43039</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42947</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42855</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42766</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42674</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2350,8 +2443,8 @@
       <c r="G43" s="3">
         <v>0</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
+      <c r="H43" s="3">
+        <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
@@ -2362,8 +2455,8 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2462,14 +2561,14 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2492,8 +2591,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,8 +3039,11 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,8 +3251,11 @@
       <c r="S58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3135,7 +3272,7 @@
         <v>300</v>
       </c>
       <c r="H59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I59" s="3">
         <v>200</v>
@@ -3170,8 +3307,11 @@
       <c r="S59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3182,7 +3322,7 @@
         <v>400</v>
       </c>
       <c r="F60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G60" s="3">
         <v>300</v>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,8 +3643,11 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3500,7 +3658,7 @@
         <v>400</v>
       </c>
       <c r="F66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G66" s="3">
         <v>300</v>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,8 +3945,11 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3792,7 +3966,7 @@
         <v>-800</v>
       </c>
       <c r="H72" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="I72" s="3">
         <v>-700</v>
@@ -3825,10 +3999,13 @@
         <v>-700</v>
       </c>
       <c r="S72" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T72" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,8 +4169,11 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4034,13 +4220,16 @@
         <v>-300</v>
       </c>
       <c r="R76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="S76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4281,72 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43951</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43312</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43220</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43131</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43039</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42947</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42855</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42766</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42674</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4203,8 +4398,11 @@
       <c r="S81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4575,11 +4792,11 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5094,11 +5340,11 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLEV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLEV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>CLEV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,97 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43951</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43769</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43677</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43585</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43496</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43404</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43312</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43220</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43131</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43039</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42947</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42855</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42766</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42674</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +810,14 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -843,23 +857,29 @@
       <c r="O9" s="3">
         <v>0</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3" t="s">
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -899,23 +919,29 @@
       <c r="O10" s="3">
         <v>0</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-      <c r="S10" s="3" t="s">
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +962,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1020,14 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1082,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1144,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1206,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1231,10 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1235,8 +1289,14 @@
       <c r="T17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1291,8 +1351,14 @@
       <c r="T18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1379,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1369,19 +1437,25 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
@@ -1425,8 +1499,14 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,8 +1561,14 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1537,8 +1623,14 @@
       <c r="T23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1685,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,8 +1747,14 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1705,8 +1809,14 @@
       <c r="T26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1761,8 +1871,14 @@
       <c r="T27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1933,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1995,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2057,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2119,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2041,8 +2181,14 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2097,8 +2243,14 @@
       <c r="T33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,8 +2305,14 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2209,69 +2367,81 @@
       <c r="T35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43951</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43769</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43677</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43585</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43496</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43404</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43312</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43220</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43131</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43039</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42947</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42855</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42766</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42674</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2462,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2486,10 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2370,8 +2544,14 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2606,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2446,11 +2632,11 @@
       <c r="H43" s="3">
         <v>0</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
@@ -2458,11 +2644,11 @@
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2482,8 +2668,14 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2730,14 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2564,18 +2762,18 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
@@ -2594,8 +2792,14 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,8 +2854,14 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2916,14 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2762,8 +2978,14 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +3040,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3102,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3164,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3226,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3288,14 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3098,8 +3350,14 @@
       <c r="T54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3378,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3402,10 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3198,13 +3460,19 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
@@ -3254,13 +3522,19 @@
       <c r="T58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>100</v>
+      </c>
+      <c r="V58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
         <v>300</v>
@@ -3275,10 +3549,10 @@
         <v>300</v>
       </c>
       <c r="I59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K59" s="3">
         <v>200</v>
@@ -3310,8 +3584,14 @@
       <c r="T59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>200</v>
+      </c>
+      <c r="V59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3325,10 +3605,10 @@
         <v>400</v>
       </c>
       <c r="G60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I60" s="3">
         <v>300</v>
@@ -3366,8 +3646,14 @@
       <c r="T60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>300</v>
+      </c>
+      <c r="V60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3708,14 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3770,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3832,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3894,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,8 +3956,14 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3661,10 +3977,10 @@
         <v>400</v>
       </c>
       <c r="G66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I66" s="3">
         <v>300</v>
@@ -3702,8 +4018,14 @@
       <c r="T66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>300</v>
+      </c>
+      <c r="V66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4046,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4104,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4166,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4228,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,8 +4290,14 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3969,10 +4317,10 @@
         <v>-800</v>
       </c>
       <c r="I72" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="J72" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="K72" s="3">
         <v>-700</v>
@@ -4002,10 +4350,16 @@
         <v>-700</v>
       </c>
       <c r="T72" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U72" s="3">
+        <v>-700</v>
+      </c>
+      <c r="V72" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4414,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4476,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,16 +4538,22 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F76" s="3">
         <v>-300</v>
@@ -4223,13 +4595,19 @@
         <v>-300</v>
       </c>
       <c r="S76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U76" s="3">
         <v>-200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,69 +4662,81 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43951</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43769</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43677</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43585</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43496</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43404</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43312</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43220</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43131</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43039</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42947</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42855</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42766</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42674</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4401,8 +4791,14 @@
       <c r="T81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4819,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4877,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4939,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5001,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5063,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5125,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +5187,14 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4795,14 +5229,14 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
@@ -4815,8 +5249,14 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5277,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5335,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5397,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5459,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5521,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5549,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5607,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5669,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5731,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5793,14 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5343,14 +5835,14 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -5363,8 +5855,14 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5917,14 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5473,6 +5977,12 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLEV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLEV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>CLEV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,100 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43951</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43769</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43677</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43585</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43496</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43404</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43312</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43220</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43131</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43039</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42947</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42855</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42766</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42674</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -816,8 +819,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -863,23 +869,26 @@
       <c r="Q9" s="3">
         <v>0</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
       <c r="T9" s="3">
         <v>0</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -925,23 +934,26 @@
       <c r="Q10" s="3">
         <v>0</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
       <c r="T10" s="3">
         <v>0</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1150,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,8 +1258,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1295,8 +1321,11 @@
       <c r="V17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1357,8 +1386,11 @@
       <c r="V18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1443,8 +1476,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1457,8 +1493,8 @@
       <c r="F21" s="3">
         <v>0</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
+      <c r="G21" s="3">
+        <v>0</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
@@ -1505,8 +1541,11 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1567,8 +1606,11 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1629,8 +1671,11 @@
       <c r="V23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1691,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,8 +1801,11 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1815,8 +1866,11 @@
       <c r="V26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1877,8 +1931,11 @@
       <c r="V27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2187,8 +2256,11 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2249,8 +2321,11 @@
       <c r="V33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,8 +2386,11 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2373,75 +2451,81 @@
       <c r="V35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43951</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43769</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43677</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43585</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43496</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43404</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43312</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43220</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43131</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43039</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42947</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42855</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42766</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42674</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,8 +2573,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2550,8 +2636,11 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2638,8 +2730,8 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
+      <c r="K43" s="3">
+        <v>0</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
@@ -2650,8 +2742,8 @@
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2674,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2768,14 +2866,14 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2798,8 +2896,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2860,8 +2961,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2984,8 +3091,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3046,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3232,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,8 +3416,11 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3356,8 +3481,11 @@
       <c r="V54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3466,16 +3596,19 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>400</v>
+      </c>
+      <c r="E58" s="3">
         <v>200</v>
-      </c>
-      <c r="E58" s="3">
-        <v>100</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
@@ -3528,16 +3661,19 @@
       <c r="V58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
         <v>200</v>
-      </c>
-      <c r="E59" s="3">
-        <v>300</v>
       </c>
       <c r="F59" s="3">
         <v>300</v>
@@ -3555,7 +3691,7 @@
         <v>300</v>
       </c>
       <c r="K59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L59" s="3">
         <v>200</v>
@@ -3590,8 +3726,11 @@
       <c r="V59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3611,7 +3750,7 @@
         <v>400</v>
       </c>
       <c r="I60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J60" s="3">
         <v>300</v>
@@ -3652,8 +3791,11 @@
       <c r="V60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3714,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3776,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,8 +4116,11 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3983,7 +4140,7 @@
         <v>400</v>
       </c>
       <c r="I66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J66" s="3">
         <v>300</v>
@@ -4024,8 +4181,11 @@
       <c r="V66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,8 +4466,11 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4323,7 +4496,7 @@
         <v>-800</v>
       </c>
       <c r="K72" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="L72" s="3">
         <v>-700</v>
@@ -4356,10 +4529,13 @@
         <v>-700</v>
       </c>
       <c r="V72" s="3">
+        <v>-700</v>
+      </c>
+      <c r="W72" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,8 +4726,11 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4556,7 +4741,7 @@
         <v>-400</v>
       </c>
       <c r="F76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G76" s="3">
         <v>-300</v>
@@ -4601,13 +4786,16 @@
         <v>-300</v>
       </c>
       <c r="U76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="V76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,75 +4856,81 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43951</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43769</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43677</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43585</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43496</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43404</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43312</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43220</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43131</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43039</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42947</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42855</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42766</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42674</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4797,8 +4991,11 @@
       <c r="V81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4883,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5235,11 +5451,11 @@
         <v>0</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
@@ -5255,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5341,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5527,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5841,11 +6086,11 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -5861,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5983,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLEV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLEV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>CLEV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43951</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43769</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43677</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43585</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43496</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43404</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43312</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43220</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43131</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43039</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42947</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42855</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42766</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42674</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -822,8 +826,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -872,23 +879,26 @@
       <c r="R9" s="3">
         <v>0</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
       <c r="U9" s="3">
         <v>0</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,23 +947,26 @@
       <c r="R10" s="3">
         <v>0</v>
       </c>
-      <c r="S10" s="3" t="s">
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
       <c r="U10" s="3">
         <v>0</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,8 +1285,9 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1324,8 +1351,11 @@
       <c r="W17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1389,8 +1419,11 @@
       <c r="W18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1479,8 +1513,11 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1496,8 +1533,8 @@
       <c r="G21" s="3">
         <v>0</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
+      <c r="H21" s="3">
+        <v>0</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
@@ -1544,8 +1581,11 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,8 +1649,11 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1674,8 +1717,11 @@
       <c r="W23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,8 +1853,11 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1869,8 +1921,11 @@
       <c r="W26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1934,8 +1989,11 @@
       <c r="W27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2259,8 +2329,11 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2324,8 +2397,11 @@
       <c r="W33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,8 +2465,11 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2454,78 +2533,84 @@
       <c r="W35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43951</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43769</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43677</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43585</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43496</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43404</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43312</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43220</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43131</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43039</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42947</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42855</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42766</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42674</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,8 +2660,9 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2639,8 +2726,11 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2733,8 +2826,8 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
@@ -2745,8 +2838,8 @@
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2869,14 +2968,14 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2899,8 +2998,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2964,8 +3066,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,8 +3542,11 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3599,19 +3730,22 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3">
         <v>400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>200</v>
-      </c>
-      <c r="F58" s="3">
-        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
@@ -3664,19 +3798,22 @@
       <c r="W58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
         <v>200</v>
-      </c>
-      <c r="F59" s="3">
-        <v>300</v>
       </c>
       <c r="G59" s="3">
         <v>300</v>
@@ -3694,7 +3831,7 @@
         <v>300</v>
       </c>
       <c r="L59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M59" s="3">
         <v>200</v>
@@ -3729,8 +3866,11 @@
       <c r="W59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3753,7 +3893,7 @@
         <v>400</v>
       </c>
       <c r="J60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K60" s="3">
         <v>300</v>
@@ -3794,8 +3934,11 @@
       <c r="W60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,8 +4274,11 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4143,7 +4301,7 @@
         <v>400</v>
       </c>
       <c r="J66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K66" s="3">
         <v>300</v>
@@ -4184,8 +4342,11 @@
       <c r="W66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,8 +4640,11 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4499,7 +4673,7 @@
         <v>-800</v>
       </c>
       <c r="L72" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="M72" s="3">
         <v>-700</v>
@@ -4532,10 +4706,13 @@
         <v>-700</v>
       </c>
       <c r="W72" s="3">
+        <v>-700</v>
+      </c>
+      <c r="X72" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,8 +4912,11 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4744,7 +4930,7 @@
         <v>-400</v>
       </c>
       <c r="G76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="H76" s="3">
         <v>-300</v>
@@ -4789,13 +4975,16 @@
         <v>-300</v>
       </c>
       <c r="V76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="W76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,78 +5048,84 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43951</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43769</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43677</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43585</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43496</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43404</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43312</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43220</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43131</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43039</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42947</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42855</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42766</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42674</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4994,8 +5189,11 @@
       <c r="W81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5454,11 +5671,11 @@
         <v>0</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6089,11 +6335,11 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
@@ -6109,8 +6355,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLEV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLEV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>CLEV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,112 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44227</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43951</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43861</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43769</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43677</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43585</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43496</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43404</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43312</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43220</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43131</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43039</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42947</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42855</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42766</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42674</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -829,8 +837,14 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -882,23 +896,29 @@
       <c r="S9" s="3">
         <v>0</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
-      <c r="W9" s="3" t="s">
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,23 +970,29 @@
       <c r="S10" s="3">
         <v>0</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
-      <c r="W10" s="3" t="s">
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1017,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1087,14 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1161,14 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1235,14 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1309,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,13 +1338,15 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>0</v>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -1354,8 +1408,14 @@
       <c r="X17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1422,8 +1482,14 @@
       <c r="X18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1514,10 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1516,8 +1584,14 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1536,11 +1610,11 @@
       <c r="H21" s="3">
         <v>0</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
@@ -1584,8 +1658,14 @@
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,8 +1732,14 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1720,8 +1806,14 @@
       <c r="X23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1880,14 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,13 +1954,19 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1924,13 +2028,19 @@
       <c r="X26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1992,8 +2102,14 @@
       <c r="X27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2176,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2250,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2324,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2398,14 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2332,13 +2472,19 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2400,8 +2546,14 @@
       <c r="X33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,13 +2620,19 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2536,81 +2694,93 @@
       <c r="X35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44227</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43951</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43861</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43769</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43677</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43585</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43496</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43404</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43312</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43220</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43131</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43039</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42947</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42855</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42766</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42674</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2805,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,8 +2833,10 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2729,8 +2903,14 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2977,14 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2829,11 +3015,11 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
@@ -2841,11 +3027,11 @@
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -2865,8 +3051,14 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,13 +3125,19 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2971,18 +3169,18 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P45" s="3" t="s">
+      <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
@@ -3001,8 +3199,14 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3069,8 +3273,14 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3347,14 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3205,8 +3421,14 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3495,14 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3569,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3643,14 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3717,14 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,8 +3791,14 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3613,8 +3865,14 @@
       <c r="X54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3897,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3925,10 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3733,8 +3995,14 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3742,16 +4010,16 @@
         <v>200</v>
       </c>
       <c r="E58" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F58" s="3">
         <v>200</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
@@ -3801,8 +4069,14 @@
       <c r="X58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3810,16 +4084,16 @@
         <v>200</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F59" s="3">
         <v>200</v>
       </c>
       <c r="G59" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I59" s="3">
         <v>300</v>
@@ -3834,10 +4108,10 @@
         <v>300</v>
       </c>
       <c r="M59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O59" s="3">
         <v>200</v>
@@ -3869,13 +4143,19 @@
       <c r="X59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E60" s="3">
         <v>400</v>
@@ -3896,10 +4176,10 @@
         <v>400</v>
       </c>
       <c r="K60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M60" s="3">
         <v>300</v>
@@ -3937,8 +4217,14 @@
       <c r="X60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,8 +4291,14 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4365,14 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4439,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4513,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,13 +4587,19 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>400</v>
+      <c r="D66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E66" s="3">
         <v>400</v>
@@ -4304,10 +4620,10 @@
         <v>400</v>
       </c>
       <c r="K66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M66" s="3">
         <v>300</v>
@@ -4345,8 +4661,14 @@
       <c r="X66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4693,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4763,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4837,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4911,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,16 +4985,22 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="E72" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="F72" s="3">
         <v>-800</v>
@@ -4676,10 +5024,10 @@
         <v>-800</v>
       </c>
       <c r="M72" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="N72" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="O72" s="3">
         <v>-700</v>
@@ -4709,10 +5057,16 @@
         <v>-700</v>
       </c>
       <c r="X72" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Y72" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5133,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5207,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,8 +5281,14 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4933,10 +5305,10 @@
         <v>-400</v>
       </c>
       <c r="H76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="I76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="J76" s="3">
         <v>-300</v>
@@ -4978,13 +5350,19 @@
         <v>-300</v>
       </c>
       <c r="W76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y76" s="3">
         <v>-200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,86 +5429,98 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44227</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43951</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43861</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43769</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43677</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43585</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43496</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43404</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43312</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43220</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43131</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43039</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42947</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42855</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42766</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42674</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -5192,8 +5582,14 @@
       <c r="X81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5614,10 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5684,14 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5758,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5832,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5906,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5980,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +6054,14 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5674,14 +6108,14 @@
         <v>0</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
@@ -5694,8 +6128,14 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +6160,10 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6230,14 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6304,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6378,14 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5992,8 +6452,14 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6484,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6554,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6628,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6702,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6776,14 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6338,14 +6830,14 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
@@ -6358,8 +6850,14 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6924,14 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6492,6 +6996,12 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLEV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLEV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>CLEV</t>
   </si>
@@ -1345,8 +1345,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>0</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -1965,8 +1965,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -2039,8 +2039,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -2483,8 +2483,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2631,8 +2631,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -3136,8 +3136,8 @@
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3">
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -4598,8 +4598,8 @@
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
+      <c r="D66" s="3">
+        <v>500</v>
       </c>
       <c r="E66" s="3">
         <v>400</v>
@@ -5519,8 +5519,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/CLEV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLEV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>CLEV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,112 +665,115 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E7" s="2">
         <v>44592</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44500</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44316</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44227</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44043</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43951</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43861</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43769</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43677</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43585</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43496</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43404</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43312</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43220</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43131</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43039</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42947</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42855</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42766</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42674</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -843,8 +846,11 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -902,23 +908,26 @@
       <c r="U9" s="3">
         <v>0</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W9" s="3">
-        <v>0</v>
-      </c>
       <c r="X9" s="3">
         <v>0</v>
       </c>
-      <c r="Y9" s="3" t="s">
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -976,23 +985,26 @@
       <c r="U10" s="3">
         <v>0</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W10" s="3">
-        <v>0</v>
-      </c>
       <c r="X10" s="3">
         <v>0</v>
       </c>
-      <c r="Y10" s="3" t="s">
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1019,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1093,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1241,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,8 +1365,9 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1414,8 +1440,11 @@
       <c r="Z17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1488,8 +1517,11 @@
       <c r="Z18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1590,16 +1623,19 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -1616,8 +1652,8 @@
       <c r="J21" s="3">
         <v>0</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
+      <c r="K21" s="3">
+        <v>0</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
@@ -1664,8 +1700,11 @@
       <c r="Z21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1738,8 +1777,11 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1812,8 +1854,11 @@
       <c r="Z23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1886,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,8 +2008,11 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2034,8 +2085,11 @@
       <c r="Z26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2108,8 +2162,11 @@
       <c r="Z27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2256,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2478,8 +2547,11 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2552,8 +2624,11 @@
       <c r="Z33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,8 +2701,11 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2700,87 +2778,93 @@
       <c r="Z35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="2">
         <v>44592</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44500</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44316</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44227</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44043</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43951</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43861</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43769</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43677</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43585</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43496</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43404</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43312</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43220</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43131</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43039</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42947</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42855</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42766</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42674</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,8 +2920,9 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2909,8 +2995,11 @@
       <c r="Z41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2983,8 +3072,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3021,8 +3113,8 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
+      <c r="O43" s="3">
+        <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
@@ -3033,8 +3125,8 @@
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
@@ -3057,8 +3149,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3131,8 +3226,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3175,14 +3273,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
+      <c r="Q45" s="3">
+        <v>0</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
@@ -3205,8 +3303,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3279,8 +3380,11 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3353,8 +3457,11 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3427,8 +3534,11 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3501,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3723,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,8 +3919,11 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3871,8 +3996,11 @@
       <c r="Z54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,8 +4056,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4001,8 +4131,11 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4016,13 +4149,13 @@
         <v>200</v>
       </c>
       <c r="G58" s="3">
+        <v>200</v>
+      </c>
+      <c r="H58" s="3">
         <v>400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>200</v>
-      </c>
-      <c r="I58" s="3">
-        <v>100</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
@@ -4075,8 +4208,11 @@
       <c r="Z58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4090,13 +4226,13 @@
         <v>200</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
         <v>200</v>
-      </c>
-      <c r="I59" s="3">
-        <v>300</v>
       </c>
       <c r="J59" s="3">
         <v>300</v>
@@ -4114,7 +4250,7 @@
         <v>300</v>
       </c>
       <c r="O59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P59" s="3">
         <v>200</v>
@@ -4149,8 +4285,11 @@
       <c r="Z59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4158,7 +4297,7 @@
         <v>500</v>
       </c>
       <c r="E60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F60" s="3">
         <v>400</v>
@@ -4182,7 +4321,7 @@
         <v>400</v>
       </c>
       <c r="M60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N60" s="3">
         <v>300</v>
@@ -4223,8 +4362,11 @@
       <c r="Z60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4297,8 +4439,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4371,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,8 +4747,11 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4602,7 +4759,7 @@
         <v>500</v>
       </c>
       <c r="E66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F66" s="3">
         <v>400</v>
@@ -4626,7 +4783,7 @@
         <v>400</v>
       </c>
       <c r="M66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N66" s="3">
         <v>300</v>
@@ -4667,8 +4824,11 @@
       <c r="Z66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,8 +5161,11 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5003,7 +5176,7 @@
         <v>-900</v>
       </c>
       <c r="F72" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="G72" s="3">
         <v>-800</v>
@@ -5030,7 +5203,7 @@
         <v>-800</v>
       </c>
       <c r="O72" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="P72" s="3">
         <v>-700</v>
@@ -5063,10 +5236,13 @@
         <v>-700</v>
       </c>
       <c r="Z72" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AA72" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,8 +5469,11 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5311,7 +5496,7 @@
         <v>-400</v>
       </c>
       <c r="J76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="K76" s="3">
         <v>-300</v>
@@ -5356,13 +5541,16 @@
         <v>-300</v>
       </c>
       <c r="Y76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="Z76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,87 +5623,93 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E80" s="2">
         <v>44592</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44500</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44316</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44227</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44043</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43951</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43861</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43769</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43677</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43585</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43496</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43404</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43312</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43220</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43131</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43039</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42947</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42855</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42766</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42674</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5588,8 +5782,11 @@
       <c r="Z81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5690,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,8 +6273,11 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6114,11 +6330,11 @@
         <v>0</v>
       </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
         <v>0</v>
       </c>
@@ -6134,8 +6350,11 @@
       <c r="Z89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6236,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6458,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,8 +7024,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6836,11 +7081,11 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
@@ -6856,8 +7101,11 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6930,8 +7178,11 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7002,6 +7253,9 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLEV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLEV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>CLEV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44592</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44500</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44316</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44227</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44043</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43951</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43861</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43769</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43677</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43585</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43496</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43404</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43312</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43220</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43131</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43039</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42947</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42855</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42766</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42674</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -849,8 +853,11 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -911,23 +918,26 @@
       <c r="V9" s="3">
         <v>0</v>
       </c>
-      <c r="W9" s="3" t="s">
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X9" s="3">
-        <v>0</v>
-      </c>
       <c r="Y9" s="3">
         <v>0</v>
       </c>
-      <c r="Z9" s="3" t="s">
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -988,23 +998,26 @@
       <c r="V10" s="3">
         <v>0</v>
       </c>
-      <c r="W10" s="3" t="s">
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X10" s="3">
-        <v>0</v>
-      </c>
       <c r="Y10" s="3">
         <v>0</v>
       </c>
-      <c r="Z10" s="3" t="s">
+      <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,13 +1392,14 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>0</v>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -1443,8 +1470,11 @@
       <c r="AA17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1520,8 +1550,11 @@
       <c r="AA18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1626,8 +1660,11 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1637,8 +1674,8 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
@@ -1655,8 +1692,8 @@
       <c r="K21" s="3">
         <v>0</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
+      <c r="L21" s="3">
+        <v>0</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
@@ -1703,8 +1740,11 @@
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,13 +1820,16 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1857,8 +1900,11 @@
       <c r="AA23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,13 +2060,16 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -2088,13 +2140,16 @@
       <c r="AA26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -2165,8 +2220,11 @@
       <c r="AA27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2550,13 +2620,16 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2627,8 +2700,11 @@
       <c r="AA33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,13 +2780,16 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2781,90 +2860,96 @@
       <c r="AA35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44592</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44500</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44316</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44227</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44043</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43951</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43861</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43769</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43677</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43585</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43496</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43404</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43312</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43220</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43131</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43039</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42947</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42855</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42766</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42674</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,8 +3007,9 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2998,8 +3085,11 @@
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3116,8 +3209,8 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
+      <c r="P43" s="3">
+        <v>0</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
@@ -3128,8 +3221,8 @@
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
+      <c r="T43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3276,14 +3375,14 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -3306,8 +3405,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3383,8 +3485,11 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,8 +4045,11 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3999,8 +4125,11 @@
       <c r="AA54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4134,8 +4265,11 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4152,13 +4286,13 @@
         <v>200</v>
       </c>
       <c r="H58" s="3">
+        <v>200</v>
+      </c>
+      <c r="I58" s="3">
         <v>400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>200</v>
-      </c>
-      <c r="J58" s="3">
-        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
@@ -4211,13 +4345,16 @@
       <c r="AA58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3">
         <v>200</v>
@@ -4229,13 +4366,13 @@
         <v>200</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
         <v>200</v>
-      </c>
-      <c r="J59" s="3">
-        <v>300</v>
       </c>
       <c r="K59" s="3">
         <v>300</v>
@@ -4253,7 +4390,7 @@
         <v>300</v>
       </c>
       <c r="P59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q59" s="3">
         <v>200</v>
@@ -4288,8 +4425,11 @@
       <c r="AA59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4300,7 +4440,7 @@
         <v>500</v>
       </c>
       <c r="F60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G60" s="3">
         <v>400</v>
@@ -4324,7 +4464,7 @@
         <v>400</v>
       </c>
       <c r="N60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O60" s="3">
         <v>300</v>
@@ -4365,8 +4505,11 @@
       <c r="AA60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,19 +4905,22 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>500</v>
+      <c r="D66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E66" s="3">
         <v>500</v>
       </c>
       <c r="F66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G66" s="3">
         <v>400</v>
@@ -4786,7 +4944,7 @@
         <v>400</v>
       </c>
       <c r="N66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O66" s="3">
         <v>300</v>
@@ -4827,8 +4985,11 @@
       <c r="AA66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,13 +5335,16 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-900</v>
+        <v>900</v>
       </c>
       <c r="E72" s="3">
         <v>-900</v>
@@ -5179,7 +5353,7 @@
         <v>-900</v>
       </c>
       <c r="G72" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="H72" s="3">
         <v>-800</v>
@@ -5206,7 +5380,7 @@
         <v>-800</v>
       </c>
       <c r="P72" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="Q72" s="3">
         <v>-700</v>
@@ -5239,10 +5413,13 @@
         <v>-700</v>
       </c>
       <c r="AA72" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AB72" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,8 +5655,11 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5499,7 +5685,7 @@
         <v>-400</v>
       </c>
       <c r="K76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="L76" s="3">
         <v>-300</v>
@@ -5544,13 +5730,16 @@
         <v>-300</v>
       </c>
       <c r="Z76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="AA76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,95 +5815,101 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44592</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44500</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44316</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44227</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44043</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43951</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43861</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43769</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43677</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43585</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43496</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43404</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43312</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43220</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43131</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43039</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42947</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42855</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42766</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42674</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -5785,8 +5980,11 @@
       <c r="AA81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6490,11 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6333,11 +6550,11 @@
         <v>0</v>
       </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
         <v>0</v>
       </c>
@@ -6353,8 +6570,11 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7084,11 +7330,11 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
@@ -7104,8 +7350,11 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,8 +7430,11 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7256,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLEV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLEV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>CLEV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,123 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E7" s="2">
         <v>44773</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44592</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44500</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44227</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44043</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43951</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43861</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43769</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43677</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43585</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43496</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43404</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43312</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43220</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43131</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43039</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42947</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42855</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42766</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42674</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -856,8 +860,11 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -921,23 +928,26 @@
       <c r="W9" s="3">
         <v>0</v>
       </c>
-      <c r="X9" s="3" t="s">
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y9" s="3">
-        <v>0</v>
-      </c>
       <c r="Z9" s="3">
         <v>0</v>
       </c>
-      <c r="AA9" s="3" t="s">
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1001,23 +1011,26 @@
       <c r="W10" s="3">
         <v>0</v>
       </c>
-      <c r="X10" s="3" t="s">
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y10" s="3">
-        <v>0</v>
-      </c>
       <c r="Z10" s="3">
         <v>0</v>
       </c>
-      <c r="AA10" s="3" t="s">
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1140,11 @@
       <c r="AB12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1223,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1286,8 +1306,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1389,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,13 +1419,14 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>0</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -1473,8 +1500,11 @@
       <c r="AB17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1553,8 +1583,11 @@
       <c r="AB18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1616,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1663,22 +1697,25 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>0</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -1695,8 +1732,8 @@
       <c r="L21" s="3">
         <v>0</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
+      <c r="M21" s="3">
+        <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
@@ -1743,8 +1780,11 @@
       <c r="AB21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1823,13 +1863,16 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1903,8 +1946,11 @@
       <c r="AB23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2029,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,13 +2112,16 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -2143,13 +2195,16 @@
       <c r="AB26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -2223,8 +2278,11 @@
       <c r="AB27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2610,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2623,13 +2693,16 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2703,8 +2776,11 @@
       <c r="AB33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,13 +2859,16 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2863,93 +2942,99 @@
       <c r="AB35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E38" s="2">
         <v>44773</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44592</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44500</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44227</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44043</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43951</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43861</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43769</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43677</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43585</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43496</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43404</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43312</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43220</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43131</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43039</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42947</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42855</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42766</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42674</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,8 +3094,9 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3088,8 +3175,11 @@
       <c r="AB41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,13 +3258,16 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -3212,8 +3305,8 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
+      <c r="Q43" s="3">
+        <v>0</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>4</v>
@@ -3224,8 +3317,8 @@
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
+      <c r="U43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
@@ -3248,8 +3341,11 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3424,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3378,14 +3477,14 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
+      <c r="S45" s="3">
+        <v>0</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
@@ -3408,8 +3507,11 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3488,8 +3590,11 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,8 +3673,11 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3648,8 +3756,11 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3839,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4005,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3968,8 +4088,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,8 +4171,11 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4128,8 +4254,11 @@
       <c r="AB54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4318,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4268,8 +4399,11 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4289,13 +4423,13 @@
         <v>200</v>
       </c>
       <c r="I58" s="3">
+        <v>200</v>
+      </c>
+      <c r="J58" s="3">
         <v>400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>200</v>
-      </c>
-      <c r="K58" s="3">
-        <v>100</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
@@ -4348,8 +4482,11 @@
       <c r="AB58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4357,7 +4494,7 @@
         <v>300</v>
       </c>
       <c r="E59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F59" s="3">
         <v>200</v>
@@ -4369,13 +4506,13 @@
         <v>200</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
         <v>200</v>
-      </c>
-      <c r="K59" s="3">
-        <v>300</v>
       </c>
       <c r="L59" s="3">
         <v>300</v>
@@ -4393,7 +4530,7 @@
         <v>300</v>
       </c>
       <c r="Q59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R59" s="3">
         <v>200</v>
@@ -4428,8 +4565,11 @@
       <c r="AB59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4443,7 +4583,7 @@
         <v>500</v>
       </c>
       <c r="G60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H60" s="3">
         <v>400</v>
@@ -4467,7 +4607,7 @@
         <v>400</v>
       </c>
       <c r="O60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P60" s="3">
         <v>300</v>
@@ -4508,8 +4648,11 @@
       <c r="AB60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4588,8 +4731,11 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4668,8 +4814,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,13 +5063,16 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
+      <c r="D66" s="3">
+        <v>500</v>
       </c>
       <c r="E66" s="3">
         <v>500</v>
@@ -4923,7 +5081,7 @@
         <v>500</v>
       </c>
       <c r="G66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H66" s="3">
         <v>400</v>
@@ -4947,7 +5105,7 @@
         <v>400</v>
       </c>
       <c r="O66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P66" s="3">
         <v>300</v>
@@ -4988,8 +5146,11 @@
       <c r="AB66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,13 +5509,16 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>900</v>
+        <v>-900</v>
       </c>
       <c r="E72" s="3">
         <v>-900</v>
@@ -5356,7 +5530,7 @@
         <v>-900</v>
       </c>
       <c r="H72" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="I72" s="3">
         <v>-800</v>
@@ -5383,7 +5557,7 @@
         <v>-800</v>
       </c>
       <c r="Q72" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="R72" s="3">
         <v>-700</v>
@@ -5416,10 +5590,13 @@
         <v>-700</v>
       </c>
       <c r="AB72" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AC72" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,13 +5841,16 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="E76" s="3">
         <v>-400</v>
@@ -5688,7 +5874,7 @@
         <v>-400</v>
       </c>
       <c r="L76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="M76" s="3">
         <v>-300</v>
@@ -5733,13 +5919,16 @@
         <v>-300</v>
       </c>
       <c r="AA76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="AB76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,98 +6007,104 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E80" s="2">
         <v>44773</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44592</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44500</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44227</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44043</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43951</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43861</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43769</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43677</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43585</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43496</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43404</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43312</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43220</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43131</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43039</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42947</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42855</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42766</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42674</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -5983,8 +6178,11 @@
       <c r="AB81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6211,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6093,8 +6292,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,8 +6707,11 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6553,11 +6770,11 @@
         <v>0</v>
       </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
       <c r="X89" s="3">
         <v>0</v>
       </c>
@@ -6573,8 +6790,11 @@
       <c r="AB89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6823,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6683,8 +6904,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7070,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6923,8 +7153,11 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7516,11 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7333,11 +7579,11 @@
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
@@ -7353,8 +7599,11 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,8 +7682,11 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7511,6 +7763,9 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLEV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLEV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>CLEV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,123 +665,127 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E7" s="2">
         <v>44865</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44773</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44592</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44500</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44227</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43951</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43861</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43769</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43677</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43585</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43496</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43404</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43312</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43220</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43131</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43039</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42947</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42855</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42766</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42674</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -863,8 +867,11 @@
       <c r="AC8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -931,23 +938,26 @@
       <c r="X9" s="3">
         <v>0</v>
       </c>
-      <c r="Y9" s="3" t="s">
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z9" s="3">
-        <v>0</v>
-      </c>
       <c r="AA9" s="3">
         <v>0</v>
       </c>
-      <c r="AB9" s="3" t="s">
+      <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1014,23 +1024,26 @@
       <c r="X10" s="3">
         <v>0</v>
       </c>
-      <c r="Y10" s="3" t="s">
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z10" s="3">
-        <v>0</v>
-      </c>
       <c r="AA10" s="3">
         <v>0</v>
       </c>
-      <c r="AB10" s="3" t="s">
+      <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1073,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1143,8 +1157,11 @@
       <c r="AC12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1243,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1309,8 +1329,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,8 +1415,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,8 +1446,9 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1503,8 +1530,11 @@
       <c r="AC17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1586,8 +1616,11 @@
       <c r="AC18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,8 +1650,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1700,8 +1734,11 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1711,14 +1748,14 @@
       <c r="E21" s="3">
         <v>0</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
+      <c r="F21" s="3">
+        <v>0</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I21" s="3">
         <v>0</v>
@@ -1735,8 +1772,8 @@
       <c r="M21" s="3">
         <v>0</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
+      <c r="N21" s="3">
+        <v>0</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
@@ -1783,8 +1820,11 @@
       <c r="AC21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1866,8 +1906,11 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1949,8 +1992,11 @@
       <c r="AC23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2032,8 +2078,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,8 +2164,11 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2198,8 +2250,11 @@
       <c r="AC26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2281,8 +2336,11 @@
       <c r="AC27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2422,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2447,8 +2508,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2594,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,8 +2680,11 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2696,8 +2766,11 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2779,8 +2852,11 @@
       <c r="AC33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,8 +2938,11 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2945,96 +3024,102 @@
       <c r="AC35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E38" s="2">
         <v>44865</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44773</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44592</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44500</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44227</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43951</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43861</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43769</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43677</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43585</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43496</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43404</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43312</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43220</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43131</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43039</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42947</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42855</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42766</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42674</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3149,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,8 +3181,9 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3178,8 +3265,11 @@
       <c r="AC41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3261,16 +3351,19 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -3308,8 +3401,8 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
+      <c r="R43" s="3">
+        <v>0</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>4</v>
@@ -3320,8 +3413,8 @@
       <c r="U43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
+      <c r="V43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
@@ -3344,8 +3437,11 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3427,8 +3523,11 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3480,14 +3579,14 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
+      <c r="T45" s="3">
+        <v>0</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
+      <c r="V45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
@@ -3510,8 +3609,11 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3593,8 +3695,11 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3676,8 +3781,11 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3759,8 +3867,11 @@
       <c r="AC48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3842,8 +3953,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4039,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,8 +4125,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4091,8 +4211,11 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,8 +4297,11 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4257,8 +4383,11 @@
       <c r="AC54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4417,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,8 +4449,9 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4402,8 +4533,11 @@
       <c r="AC57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4426,13 +4560,13 @@
         <v>200</v>
       </c>
       <c r="J58" s="3">
+        <v>200</v>
+      </c>
+      <c r="K58" s="3">
         <v>400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>200</v>
-      </c>
-      <c r="L58" s="3">
-        <v>100</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
@@ -4485,8 +4619,11 @@
       <c r="AC58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4497,7 +4634,7 @@
         <v>300</v>
       </c>
       <c r="F59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G59" s="3">
         <v>200</v>
@@ -4509,13 +4646,13 @@
         <v>200</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
         <v>200</v>
-      </c>
-      <c r="L59" s="3">
-        <v>300</v>
       </c>
       <c r="M59" s="3">
         <v>300</v>
@@ -4533,7 +4670,7 @@
         <v>300</v>
       </c>
       <c r="R59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S59" s="3">
         <v>200</v>
@@ -4568,8 +4705,11 @@
       <c r="AC59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4586,7 +4726,7 @@
         <v>500</v>
       </c>
       <c r="H60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I60" s="3">
         <v>400</v>
@@ -4610,7 +4750,7 @@
         <v>400</v>
       </c>
       <c r="P60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q60" s="3">
         <v>300</v>
@@ -4651,8 +4791,11 @@
       <c r="AC60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4734,8 +4877,11 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4817,8 +4963,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5049,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5135,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,8 +5221,11 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -5084,7 +5242,7 @@
         <v>500</v>
       </c>
       <c r="H66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I66" s="3">
         <v>400</v>
@@ -5108,7 +5266,7 @@
         <v>400</v>
       </c>
       <c r="P66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q66" s="3">
         <v>300</v>
@@ -5149,8 +5307,11 @@
       <c r="AC66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5341,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5425,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5511,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5597,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,8 +5683,11 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5533,7 +5707,7 @@
         <v>-900</v>
       </c>
       <c r="I72" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="J72" s="3">
         <v>-800</v>
@@ -5560,7 +5734,7 @@
         <v>-800</v>
       </c>
       <c r="R72" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="S72" s="3">
         <v>-700</v>
@@ -5593,10 +5767,13 @@
         <v>-700</v>
       </c>
       <c r="AC72" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AD72" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5855,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5941,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,8 +6027,11 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5853,7 +6039,7 @@
         <v>-500</v>
       </c>
       <c r="E76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="F76" s="3">
         <v>-400</v>
@@ -5877,7 +6063,7 @@
         <v>-400</v>
       </c>
       <c r="M76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="N76" s="3">
         <v>-300</v>
@@ -5922,13 +6108,16 @@
         <v>-300</v>
       </c>
       <c r="AB76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="AC76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,96 +6199,102 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E80" s="2">
         <v>44865</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44773</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44592</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44500</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44227</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43951</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43861</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43769</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43677</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43585</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43496</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43404</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43312</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43220</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43131</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43039</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42947</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42855</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42766</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42674</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6181,8 +6376,11 @@
       <c r="AC81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,8 +6410,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6295,8 +6494,11 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6580,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6666,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6752,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6838,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,8 +6924,11 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6773,11 +6990,11 @@
         <v>0</v>
       </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
       <c r="Y89" s="3">
         <v>0</v>
       </c>
@@ -6793,8 +7010,11 @@
       <c r="AC89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,8 +7044,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6907,8 +7128,11 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7214,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,8 +7300,11 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7156,8 +7386,11 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7420,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7504,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7590,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7676,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,8 +7762,11 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7582,11 +7828,11 @@
         <v>0</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>100</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
         <v>0</v>
       </c>
@@ -7602,8 +7848,11 @@
       <c r="AC100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7685,8 +7934,11 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7766,6 +8018,9 @@
         <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLEV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLEV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>CLEV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,127 +665,130 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E7" s="2">
         <v>44957</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44865</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44773</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44592</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44500</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44227</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44043</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43951</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43861</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43769</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43677</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43585</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43496</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43404</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43312</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43220</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43131</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43039</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42947</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42855</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42766</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42674</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -870,8 +873,11 @@
       <c r="AD8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -941,23 +947,26 @@
       <c r="Y9" s="3">
         <v>0</v>
       </c>
-      <c r="Z9" s="3" t="s">
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA9" s="3">
-        <v>0</v>
-      </c>
       <c r="AB9" s="3">
         <v>0</v>
       </c>
-      <c r="AC9" s="3" t="s">
+      <c r="AC9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1027,23 +1036,26 @@
       <c r="Y10" s="3">
         <v>0</v>
       </c>
-      <c r="Z10" s="3" t="s">
+      <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA10" s="3">
-        <v>0</v>
-      </c>
       <c r="AB10" s="3">
         <v>0</v>
       </c>
-      <c r="AC10" s="3" t="s">
+      <c r="AC10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1074,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1160,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1246,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1332,8 +1351,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1418,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1447,8 +1472,9 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1533,8 +1559,11 @@
       <c r="AD17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1619,8 +1648,11 @@
       <c r="AD18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1651,8 +1683,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1737,8 +1770,11 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1751,14 +1787,14 @@
       <c r="F21" s="3">
         <v>0</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
+      <c r="G21" s="3">
+        <v>0</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J21" s="3">
         <v>0</v>
@@ -1775,8 +1811,8 @@
       <c r="N21" s="3">
         <v>0</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
+      <c r="O21" s="3">
+        <v>0</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
@@ -1823,8 +1859,11 @@
       <c r="AD21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1909,8 +1948,11 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1995,8 +2037,11 @@
       <c r="AD23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2081,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2167,8 +2215,11 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2253,8 +2304,11 @@
       <c r="AD26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2339,8 +2393,11 @@
       <c r="AD27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2425,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2511,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2597,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2683,8 +2749,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2769,8 +2838,11 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2855,8 +2927,11 @@
       <c r="AD33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2941,8 +3016,11 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -3027,99 +3105,105 @@
       <c r="AD35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E38" s="2">
         <v>44957</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44865</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44773</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44592</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44500</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44227</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44043</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43951</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43861</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43769</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43677</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43585</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43496</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43404</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43312</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43220</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43131</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43039</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42947</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42855</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42766</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42674</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3150,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3182,8 +3267,9 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3268,8 +3354,11 @@
       <c r="AD41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3354,19 +3443,22 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>0</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -3404,8 +3496,8 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
+      <c r="S43" s="3">
+        <v>0</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>4</v>
@@ -3416,8 +3508,8 @@
       <c r="V43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W43" s="3">
-        <v>0</v>
+      <c r="W43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X43" s="3">
         <v>0</v>
@@ -3440,8 +3532,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3526,8 +3621,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3582,14 +3680,14 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
+      <c r="U45" s="3">
+        <v>0</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W45" s="3">
-        <v>0</v>
+      <c r="W45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
@@ -3612,8 +3710,11 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3698,8 +3799,11 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3784,8 +3888,11 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3870,8 +3977,11 @@
       <c r="AD48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3956,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4042,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4128,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4214,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4300,8 +4422,11 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4386,8 +4511,11 @@
       <c r="AD54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4418,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4450,8 +4579,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4536,8 +4666,11 @@
       <c r="AD57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4563,13 +4696,13 @@
         <v>200</v>
       </c>
       <c r="K58" s="3">
+        <v>200</v>
+      </c>
+      <c r="L58" s="3">
         <v>400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>200</v>
-      </c>
-      <c r="M58" s="3">
-        <v>100</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
@@ -4622,8 +4755,11 @@
       <c r="AD58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4637,7 +4773,7 @@
         <v>300</v>
       </c>
       <c r="G59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H59" s="3">
         <v>200</v>
@@ -4649,13 +4785,13 @@
         <v>200</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
         <v>200</v>
-      </c>
-      <c r="M59" s="3">
-        <v>300</v>
       </c>
       <c r="N59" s="3">
         <v>300</v>
@@ -4673,7 +4809,7 @@
         <v>300</v>
       </c>
       <c r="S59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T59" s="3">
         <v>200</v>
@@ -4708,8 +4844,11 @@
       <c r="AD59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4729,7 +4868,7 @@
         <v>500</v>
       </c>
       <c r="I60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J60" s="3">
         <v>400</v>
@@ -4753,7 +4892,7 @@
         <v>400</v>
       </c>
       <c r="Q60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R60" s="3">
         <v>300</v>
@@ -4794,8 +4933,11 @@
       <c r="AD60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4880,8 +5022,11 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4966,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5052,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5138,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5224,8 +5378,11 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -5245,7 +5402,7 @@
         <v>500</v>
       </c>
       <c r="I66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J66" s="3">
         <v>400</v>
@@ -5269,7 +5426,7 @@
         <v>400</v>
       </c>
       <c r="Q66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R66" s="3">
         <v>300</v>
@@ -5310,8 +5467,11 @@
       <c r="AD66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5342,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5428,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5514,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5600,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5686,8 +5856,11 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5710,7 +5883,7 @@
         <v>-900</v>
       </c>
       <c r="J72" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="K72" s="3">
         <v>-800</v>
@@ -5737,7 +5910,7 @@
         <v>-800</v>
       </c>
       <c r="S72" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="T72" s="3">
         <v>-700</v>
@@ -5770,10 +5943,13 @@
         <v>-700</v>
       </c>
       <c r="AD72" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AE72" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5858,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5944,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6030,8 +6212,11 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -6042,7 +6227,7 @@
         <v>-500</v>
       </c>
       <c r="F76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="G76" s="3">
         <v>-400</v>
@@ -6066,7 +6251,7 @@
         <v>-400</v>
       </c>
       <c r="N76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="O76" s="3">
         <v>-300</v>
@@ -6111,13 +6296,16 @@
         <v>-300</v>
       </c>
       <c r="AC76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="AD76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6202,99 +6390,105 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E80" s="2">
         <v>44957</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44865</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44773</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44592</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44500</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44227</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44043</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43951</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43861</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43769</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43677</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43585</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43496</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43404</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43312</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43220</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43131</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43039</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42947</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42855</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42766</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42674</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6379,8 +6573,11 @@
       <c r="AD81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6411,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6497,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6583,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6669,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6755,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6841,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6927,8 +7140,11 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6993,11 +7209,11 @@
         <v>0</v>
       </c>
       <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
       <c r="Z89" s="3">
         <v>0</v>
       </c>
@@ -7013,8 +7229,11 @@
       <c r="AD89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7045,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7131,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7217,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7303,8 +7529,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7389,8 +7618,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7421,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7507,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7593,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7679,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7765,8 +8007,11 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7831,11 +8076,11 @@
         <v>0</v>
       </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>100</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
         <v>0</v>
       </c>
@@ -7851,8 +8096,11 @@
       <c r="AD100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7937,8 +8185,11 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8021,6 +8272,9 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLEV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLEV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>CLEV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,134 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E7" s="2">
         <v>45046</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44957</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44865</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44773</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44592</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44500</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44316</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44227</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44135</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44043</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43951</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43861</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43769</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43677</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43585</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43496</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43404</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43312</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43220</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43131</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43039</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42947</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42855</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42766</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42674</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -876,13 +880,16 @@
       <c r="AE8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -950,23 +957,26 @@
       <c r="Z9" s="3">
         <v>0</v>
       </c>
-      <c r="AA9" s="3" t="s">
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB9" s="3">
-        <v>0</v>
-      </c>
       <c r="AC9" s="3">
         <v>0</v>
       </c>
-      <c r="AD9" s="3" t="s">
+      <c r="AD9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AE9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1039,23 +1049,26 @@
       <c r="Z10" s="3">
         <v>0</v>
       </c>
-      <c r="AA10" s="3" t="s">
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB10" s="3">
-        <v>0</v>
-      </c>
       <c r="AC10" s="3">
         <v>0</v>
       </c>
-      <c r="AD10" s="3" t="s">
+      <c r="AD10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AE10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,8 +1499,9 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1562,8 +1589,11 @@
       <c r="AE17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1651,8 +1681,11 @@
       <c r="AE18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,8 +1717,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1773,8 +1807,11 @@
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1790,14 +1827,14 @@
       <c r="G21" s="3">
         <v>0</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
+      <c r="H21" s="3">
+        <v>0</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K21" s="3">
         <v>0</v>
@@ -1814,8 +1851,8 @@
       <c r="O21" s="3">
         <v>0</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
+      <c r="P21" s="3">
+        <v>0</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
@@ -1862,8 +1899,11 @@
       <c r="AE21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1951,8 +1991,11 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -2040,8 +2083,11 @@
       <c r="AE23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,13 +2267,16 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -2307,13 +2359,16 @@
       <c r="AE26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -2396,8 +2451,11 @@
       <c r="AE27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,8 +2819,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2841,13 +2911,16 @@
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2930,8 +3003,11 @@
       <c r="AE33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,13 +3095,16 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -3108,102 +3187,108 @@
       <c r="AE35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E38" s="2">
         <v>45046</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44957</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44865</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44773</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44592</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44500</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44316</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44227</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44135</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44043</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43951</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43861</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43769</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43677</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43585</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43496</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43404</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43312</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43220</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43131</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43039</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42947</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42855</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42766</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42674</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,8 +3354,9 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3357,8 +3444,11 @@
       <c r="AE41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,22 +3536,25 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -3499,8 +3592,8 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
+      <c r="T43" s="3">
+        <v>0</v>
       </c>
       <c r="U43" s="3" t="s">
         <v>4</v>
@@ -3511,8 +3604,8 @@
       <c r="W43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X43" s="3">
-        <v>0</v>
+      <c r="X43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y43" s="3">
         <v>0</v>
@@ -3535,8 +3628,11 @@
       <c r="AE43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3624,8 +3720,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3683,14 +3782,14 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>4</v>
+      <c r="V45" s="3">
+        <v>0</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X45" s="3">
-        <v>0</v>
+      <c r="X45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y45" s="3">
         <v>0</v>
@@ -3713,8 +3812,11 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3802,8 +3904,11 @@
       <c r="AE46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3891,8 +3996,11 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3980,8 +4088,11 @@
       <c r="AE48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,8 +4548,11 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4514,8 +4640,11 @@
       <c r="AE54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,8 +4710,9 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4669,8 +4800,11 @@
       <c r="AE57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4699,13 +4833,13 @@
         <v>200</v>
       </c>
       <c r="L58" s="3">
+        <v>200</v>
+      </c>
+      <c r="M58" s="3">
         <v>400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>200</v>
-      </c>
-      <c r="N58" s="3">
-        <v>100</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
@@ -4758,8 +4892,11 @@
       <c r="AE58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4776,7 +4913,7 @@
         <v>300</v>
       </c>
       <c r="H59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I59" s="3">
         <v>200</v>
@@ -4788,13 +4925,13 @@
         <v>200</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
         <v>200</v>
-      </c>
-      <c r="N59" s="3">
-        <v>300</v>
       </c>
       <c r="O59" s="3">
         <v>300</v>
@@ -4812,7 +4949,7 @@
         <v>300</v>
       </c>
       <c r="T59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U59" s="3">
         <v>200</v>
@@ -4847,8 +4984,11 @@
       <c r="AE59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4871,7 +5011,7 @@
         <v>500</v>
       </c>
       <c r="J60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K60" s="3">
         <v>400</v>
@@ -4895,7 +5035,7 @@
         <v>400</v>
       </c>
       <c r="R60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S60" s="3">
         <v>300</v>
@@ -4936,8 +5076,11 @@
       <c r="AE60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -5025,8 +5168,11 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,13 +5536,16 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>500</v>
+      <c r="D66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E66" s="3">
         <v>500</v>
@@ -5405,7 +5563,7 @@
         <v>500</v>
       </c>
       <c r="J66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K66" s="3">
         <v>400</v>
@@ -5429,7 +5587,7 @@
         <v>400</v>
       </c>
       <c r="R66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S66" s="3">
         <v>300</v>
@@ -5470,8 +5628,11 @@
       <c r="AE66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,8 +6030,11 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5886,7 +6060,7 @@
         <v>-900</v>
       </c>
       <c r="K72" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="L72" s="3">
         <v>-800</v>
@@ -5913,7 +6087,7 @@
         <v>-800</v>
       </c>
       <c r="T72" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="U72" s="3">
         <v>-700</v>
@@ -5946,10 +6120,13 @@
         <v>-700</v>
       </c>
       <c r="AE72" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AF72" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,8 +6398,11 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -6230,7 +6416,7 @@
         <v>-500</v>
       </c>
       <c r="G76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="H76" s="3">
         <v>-400</v>
@@ -6254,7 +6440,7 @@
         <v>-400</v>
       </c>
       <c r="O76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="P76" s="3">
         <v>-300</v>
@@ -6299,13 +6485,16 @@
         <v>-300</v>
       </c>
       <c r="AD76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="AE76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,107 +6582,113 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E80" s="2">
         <v>45046</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44957</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44865</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44773</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44592</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44500</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44316</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44227</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44135</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44043</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43951</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43861</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43769</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43677</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43585</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43496</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43404</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43312</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43220</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43131</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43039</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42947</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42855</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42766</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42674</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -6576,8 +6771,11 @@
       <c r="AE81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,8 +7357,11 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -7212,11 +7429,11 @@
         <v>0</v>
       </c>
       <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
-      <c r="Z89" s="3">
-        <v>0</v>
-      </c>
       <c r="AA89" s="3">
         <v>0</v>
       </c>
@@ -7232,8 +7449,11 @@
       <c r="AE89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7354,8 +7575,11 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,8 +7759,11 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7621,8 +7851,11 @@
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,8 +8253,11 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -8079,11 +8325,11 @@
         <v>0</v>
       </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>100</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
       <c r="AA100" s="3">
         <v>0</v>
       </c>
@@ -8099,8 +8345,11 @@
       <c r="AE100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,8 +8437,11 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8275,6 +8527,9 @@
         <v>0</v>
       </c>
       <c r="AE102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>
